--- a/Enrichment Bloomberg Template.xlsx
+++ b/Enrichment Bloomberg Template.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zhangst\git\risk_report\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\steven.zhang\AppData\Local\Programs\Git\git\risk_report\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E8C9C77-8F6B-4BCA-A6D4-00E38913A6E3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D31B215-5F98-48FA-BD3B-5F04DC4FEAB8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="22140" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="37785" yWindow="3510" windowWidth="21960" windowHeight="14850" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -60,9 +60,6 @@
     <t>ID</t>
   </si>
   <si>
-    <t>ID Type</t>
-  </si>
-  <si>
     <t>MARKET_SECTOR_DES</t>
   </si>
   <si>
@@ -91,6 +88,9 @@
   </si>
   <si>
     <t>XS2125922349</t>
+  </si>
+  <si>
+    <t>ID_TYPE</t>
   </si>
 </sst>
 </file>
@@ -160,27 +160,27 @@
   <volType type="realTimeData">
     <main first="bloomberg.rtd">
       <tp t="s">
-        <v>CN</v>
+        <v>#N/A Requesting Data...</v>
+        <stp/>
+        <stp>##V3_BDPV12</stp>
+        <stp>700 HK Equity</stp>
+        <stp>CNTRY_ISSUE_ISO</stp>
+        <stp>[Enrichment Bloomberg Template.xlsx]Sheet1!R2C4</stp>
+        <tr r="D2" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>#N/A Requesting Data...</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>700 HK Equity</stp>
         <stp>CNTRY_OF_RISK</stp>
-        <stp>[enrichment.xlsx]Sheet1!R2C5</stp>
+        <stp>[Enrichment Bloomberg Template.xlsx]Sheet1!R2C5</stp>
         <tr r="E2" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>HK</v>
-        <stp/>
-        <stp>##V3_BDPV12</stp>
-        <stp>700 HK Equity</stp>
-        <stp>CNTRY_ISSUE_ISO</stp>
-        <stp>[enrichment.xlsx]Sheet1!R2C4</stp>
-        <tr r="D2" s="1"/>
       </tp>
     </main>
     <main first="bloomberg.rtd">
       <tp t="s">
-        <v>CN</v>
+        <v>#N/A Requesting Data...</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>XS2125922349 ISIN</stp>
@@ -189,7 +189,43 @@
         <tr r="D4" s="1"/>
       </tp>
       <tp t="s">
-        <v>US</v>
+        <v>#N/A Requesting Data...</v>
+        <stp/>
+        <stp>##V3_BDPV12</stp>
+        <stp>XS2114413565 ISIN</stp>
+        <stp>MARKET_SECTOR_DES</stp>
+        <stp>[Enrichment Bloomberg Template.xlsx]Sheet1!R3C6</stp>
+        <tr r="F3" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>#N/A Requesting Data...</v>
+        <stp/>
+        <stp>##V3_BDPV12</stp>
+        <stp>XS2114413565 ISIN</stp>
+        <stp>MARKET_SECTOR_DES</stp>
+        <stp>[Enrichment Bloomberg Template.xlsx]Sheet1!R3C3</stp>
+        <tr r="C3" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>#N/A Requesting Data...</v>
+        <stp/>
+        <stp>##V3_BDPV12</stp>
+        <stp>XS2125922349 ISIN</stp>
+        <stp>MARKET_SECTOR_DES</stp>
+        <stp>[Enrichment Bloomberg Template.xlsx]Sheet1!R4C3</stp>
+        <tr r="C4" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>#N/A Requesting Data...</v>
+        <stp/>
+        <stp>##V3_BDPV12</stp>
+        <stp>XS2125922349 ISIN</stp>
+        <stp>MARKET_SECTOR_DES</stp>
+        <stp>[Enrichment Bloomberg Template.xlsx]Sheet1!R4C6</stp>
+        <tr r="F4" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>#N/A Requesting Data...</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>XS2114413565 ISIN</stp>
@@ -197,135 +233,99 @@
         <stp>[Enrichment Bloomberg Template.xlsx]Sheet1!R3C4</stp>
         <tr r="D3" s="1"/>
       </tp>
-      <tp t="s">
-        <v>US</v>
+    </main>
+    <main first="bloomberg.rtd">
+      <tp t="s">
+        <v>#N/A Requesting Data...</v>
+        <stp/>
+        <stp>##V3_BDPV12</stp>
+        <stp>700 HK Equity</stp>
+        <stp>EXCH_MARKET_STATUS</stp>
+        <stp>[Enrichment Bloomberg Template.xlsx]Sheet1!R2C7</stp>
+        <tr r="G2" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>#N/A Requesting Data...</v>
+        <stp/>
+        <stp>##V3_BDPV12</stp>
+        <stp>XS2125922349 ISIN</stp>
+        <stp>EXCH_MARKET_STATUS</stp>
+        <stp>[Enrichment Bloomberg Template.xlsx]Sheet1!R4C7</stp>
+        <tr r="G4" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>#N/A Requesting Data...</v>
+        <stp/>
+        <stp>##V3_BDPV12</stp>
+        <stp>XS2114413565 ISIN</stp>
+        <stp>EXCH_MARKET_STATUS</stp>
+        <stp>[Enrichment Bloomberg Template.xlsx]Sheet1!R3C7</stp>
+        <tr r="G3" s="1"/>
+      </tp>
+    </main>
+    <main first="bloomberg.rtd">
+      <tp t="s">
+        <v>#N/A Requesting Data...</v>
+        <stp/>
+        <stp>##V3_BDPV12</stp>
+        <stp>XS2114413565 ISIN</stp>
+        <stp>CAPITAL_CONTINGENT_SECURITY</stp>
+        <stp>[Enrichment Bloomberg Template.xlsx]Sheet1!R3C8</stp>
+        <tr r="H3" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>#N/A Requesting Data...</v>
+        <stp/>
+        <stp>##V3_BDPV12</stp>
+        <stp>XS2125922349 ISIN</stp>
+        <stp>CAPITAL_CONTINGENT_SECURITY</stp>
+        <stp>[Enrichment Bloomberg Template.xlsx]Sheet1!R4C8</stp>
+        <tr r="H4" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>#N/A Requesting Data...</v>
+        <stp/>
+        <stp>##V3_BDPV12</stp>
+        <stp>XS2125922349 ISIN</stp>
+        <stp>CNTRY_OF_RISK</stp>
+        <stp>[Enrichment Bloomberg Template.xlsx]Sheet1!R4C5</stp>
+        <tr r="E4" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>#N/A Requesting Data...</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>XS2114413565 ISIN</stp>
         <stp>CNTRY_OF_RISK</stp>
-        <stp>[enrichment.xlsx]Sheet1!R3C5</stp>
+        <stp>[Enrichment Bloomberg Template.xlsx]Sheet1!R3C5</stp>
         <tr r="E3" s="1"/>
       </tp>
       <tp t="s">
-        <v>CN</v>
-        <stp/>
-        <stp>##V3_BDPV12</stp>
-        <stp>XS2125922349 ISIN</stp>
-        <stp>CNTRY_OF_RISK</stp>
-        <stp>[enrichment.xlsx]Sheet1!R4C5</stp>
-        <tr r="E4" s="1"/>
-      </tp>
-    </main>
-    <main first="bloomberg.rtd">
-      <tp t="s">
-        <v>ACTV</v>
-        <stp/>
-        <stp>##V3_BDPV12</stp>
-        <stp>XS2114413565 ISIN</stp>
-        <stp>EXCH_MARKET_STATUS</stp>
-        <stp>[enrichment.xlsx]Sheet1!R3C7</stp>
-        <tr r="G3" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>Y</v>
-        <stp/>
-        <stp>##V3_BDPV12</stp>
-        <stp>XS2125922349 ISIN</stp>
+        <v>#N/A Requesting Data...</v>
+        <stp/>
+        <stp>##V3_BDPV12</stp>
+        <stp>700 HK Equity</stp>
         <stp>CAPITAL_CONTINGENT_SECURITY</stp>
-        <stp>[enrichment.xlsx]Sheet1!R4C8</stp>
-        <tr r="H4" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>ACTV</v>
-        <stp/>
-        <stp>##V3_BDPV12</stp>
-        <stp>XS2125922349 ISIN</stp>
-        <stp>EXCH_MARKET_STATUS</stp>
-        <stp>[enrichment.xlsx]Sheet1!R4C7</stp>
-        <tr r="G4" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>#N/A Field Not Applicable</v>
-        <stp/>
-        <stp>##V3_BDPV12</stp>
-        <stp>XS2114413565 ISIN</stp>
-        <stp>CAPITAL_CONTINGENT_SECURITY</stp>
-        <stp>[enrichment.xlsx]Sheet1!R3C8</stp>
-        <tr r="H3" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>ACTV</v>
-        <stp/>
-        <stp>##V3_BDPV12</stp>
-        <stp>700 HK Equity</stp>
-        <stp>EXCH_MARKET_STATUS</stp>
-        <stp>[enrichment.xlsx]Sheet1!R2C7</stp>
-        <tr r="G2" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>Equity</v>
+        <stp>[Enrichment Bloomberg Template.xlsx]Sheet1!R2C8</stp>
+        <tr r="H2" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>#N/A Requesting Data...</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>700 HK Equity</stp>
         <stp>MARKET_SECTOR_DES</stp>
-        <stp>[enrichment.xlsx]Sheet1!R2C6</stp>
+        <stp>[Enrichment Bloomberg Template.xlsx]Sheet1!R2C6</stp>
         <tr r="F2" s="1"/>
       </tp>
       <tp t="s">
-        <v>Equity</v>
+        <v>#N/A Requesting Data...</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>700 HK Equity</stp>
         <stp>MARKET_SECTOR_DES</stp>
-        <stp>[enrichment.xlsx]Sheet1!R2C3</stp>
+        <stp>[Enrichment Bloomberg Template.xlsx]Sheet1!R2C3</stp>
         <tr r="C2" s="1"/>
-      </tp>
-    </main>
-    <main first="bloomberg.rtd">
-      <tp t="s">
-        <v>Corp</v>
-        <stp/>
-        <stp>##V3_BDPV12</stp>
-        <stp>XS2114413565 ISIN</stp>
-        <stp>MARKET_SECTOR_DES</stp>
-        <stp>[enrichment.xlsx]Sheet1!R3C6</stp>
-        <tr r="F3" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>Corp</v>
-        <stp/>
-        <stp>##V3_BDPV12</stp>
-        <stp>XS2114413565 ISIN</stp>
-        <stp>MARKET_SECTOR_DES</stp>
-        <stp>[enrichment.xlsx]Sheet1!R3C3</stp>
-        <tr r="C3" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>Corp</v>
-        <stp/>
-        <stp>##V3_BDPV12</stp>
-        <stp>XS2125922349 ISIN</stp>
-        <stp>MARKET_SECTOR_DES</stp>
-        <stp>[enrichment.xlsx]Sheet1!R4C3</stp>
-        <tr r="C4" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>Corp</v>
-        <stp/>
-        <stp>##V3_BDPV12</stp>
-        <stp>XS2125922349 ISIN</stp>
-        <stp>MARKET_SECTOR_DES</stp>
-        <stp>[enrichment.xlsx]Sheet1!R4C6</stp>
-        <tr r="F4" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>#N/A Field Not Applicable</v>
-        <stp/>
-        <stp>##V3_BDPV12</stp>
-        <stp>700 HK Equity</stp>
-        <stp>CAPITAL_CONTINGENT_SECURITY</stp>
-        <stp>[enrichment.xlsx]Sheet1!R2C8</stp>
-        <tr r="H2" s="1"/>
       </tp>
     </main>
   </volType>
@@ -598,141 +598,141 @@
   <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J4" sqref="J4"/>
+      <selection sqref="A1:B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.88671875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.33203125" customWidth="1"/>
-    <col min="3" max="3" width="19.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.44140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="19.6640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="25.5546875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="29.5546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.28515625" customWidth="1"/>
+    <col min="3" max="3" width="19.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="19.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="25.5703125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="29.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
+        <v>1</v>
+      </c>
+      <c r="G1" t="s">
+        <v>9</v>
+      </c>
+      <c r="H1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
-        <v>2</v>
-      </c>
-      <c r="G1" t="s">
-        <v>10</v>
-      </c>
-      <c r="H1" t="s">
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
+      <c r="B2" t="s">
         <v>6</v>
-      </c>
-      <c r="B2" t="s">
-        <v>7</v>
       </c>
       <c r="C2" t="str" cm="1">
         <f t="array" ref="C2">IF($B2="TICKER", _xll.BDP($A2,C$1), _xll.BDP($A2&amp;" "&amp;$B2, C$1))</f>
-        <v>Equity</v>
+        <v>#N/A Requesting Data...</v>
       </c>
       <c r="D2" t="str" cm="1">
         <f t="array" ref="D2">IF($B2="TICKER", _xll.BDP($A2,D$1), _xll.BDP($A2&amp;" "&amp;$B2, D$1))</f>
-        <v>HK</v>
+        <v>#N/A Requesting Data...</v>
       </c>
       <c r="E2" t="str" cm="1">
         <f t="array" ref="E2">IF($B2="TICKER", _xll.BDP($A2,E$1), _xll.BDP($A2&amp;" "&amp;$B2, E$1))</f>
-        <v>CN</v>
+        <v>#N/A Requesting Data...</v>
       </c>
       <c r="F2" t="str" cm="1">
         <f t="array" ref="F2">IF($B2="TICKER", _xll.BDP($A2,F$1), _xll.BDP($A2&amp;" "&amp;$B2, F$1))</f>
-        <v>Equity</v>
+        <v>#N/A Requesting Data...</v>
       </c>
       <c r="G2" t="str" cm="1">
         <f t="array" ref="G2">IF($B2="TICKER", _xll.BDP($A2,G$1), _xll.BDP($A2&amp;" "&amp;$B2, G$1))</f>
-        <v>ACTV</v>
+        <v>#N/A Requesting Data...</v>
       </c>
       <c r="H2" t="str" cm="1">
-        <f t="array" ref="H2">IF($B2="TICKER", _xll.BDP($A2,H$1), _xll.BDP($A2&amp;" "&amp;$B2, H$1))</f>
-        <v>#N/A Field Not Applicable</v>
+        <f t="array" ref="H2">IF(C2="Equity", "N", IF($B2="TICKER", _xll.BDP($A2,H$1), _xll.BDP($A2&amp;" "&amp;$B2, H$1)))</f>
+        <v>#N/A Requesting Data...</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" t="s">
         <v>8</v>
-      </c>
-      <c r="B3" t="s">
-        <v>9</v>
       </c>
       <c r="C3" t="str" cm="1">
         <f t="array" ref="C3">IF($B3="TICKER", _xll.BDP($A3,C$1), _xll.BDP($A3&amp;" "&amp;$B3, C$1))</f>
-        <v>Corp</v>
+        <v>#N/A Requesting Data...</v>
       </c>
       <c r="D3" t="str" cm="1">
         <f t="array" ref="D3">IF($B3="TICKER", _xll.BDP($A3,D$1), _xll.BDP($A3&amp;" "&amp;$B3, D$1))</f>
-        <v>US</v>
+        <v>#N/A Requesting Data...</v>
       </c>
       <c r="E3" t="str" cm="1">
         <f t="array" ref="E3">IF($B3="TICKER", _xll.BDP($A3,E$1), _xll.BDP($A3&amp;" "&amp;$B3, E$1))</f>
-        <v>US</v>
+        <v>#N/A Requesting Data...</v>
       </c>
       <c r="F3" t="str" cm="1">
         <f t="array" ref="F3">IF($B3="TICKER", _xll.BDP($A3,F$1), _xll.BDP($A3&amp;" "&amp;$B3, F$1))</f>
-        <v>Corp</v>
+        <v>#N/A Requesting Data...</v>
       </c>
       <c r="G3" t="str" cm="1">
         <f t="array" ref="G3">IF($B3="TICKER", _xll.BDP($A3,G$1), _xll.BDP($A3&amp;" "&amp;$B3, G$1))</f>
-        <v>ACTV</v>
+        <v>#N/A Requesting Data...</v>
       </c>
       <c r="H3" t="str" cm="1">
-        <f t="array" ref="H3">IF($B3="TICKER", _xll.BDP($A3,H$1), _xll.BDP($A3&amp;" "&amp;$B3, H$1))</f>
-        <v>#N/A Field Not Applicable</v>
+        <f t="array" ref="H3">IF(C3="Equity", "N", IF($B3="TICKER", _xll.BDP($A3,H$1), _xll.BDP($A3&amp;" "&amp;$B3, H$1)))</f>
+        <v>#N/A Requesting Data...</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C4" t="str" cm="1">
         <f t="array" ref="C4">IF($B4="TICKER", _xll.BDP($A4,C$1), _xll.BDP($A4&amp;" "&amp;$B4, C$1))</f>
-        <v>Corp</v>
+        <v>#N/A Requesting Data...</v>
       </c>
       <c r="D4" t="str" cm="1">
         <f t="array" ref="D4">IF($B4="TICKER", _xll.BDP($A4,D$1), _xll.BDP($A4&amp;" "&amp;$B4, D$1))</f>
-        <v>CN</v>
+        <v>#N/A Requesting Data...</v>
       </c>
       <c r="E4" t="str" cm="1">
         <f t="array" ref="E4">IF($B4="TICKER", _xll.BDP($A4,E$1), _xll.BDP($A4&amp;" "&amp;$B4, E$1))</f>
-        <v>CN</v>
+        <v>#N/A Requesting Data...</v>
       </c>
       <c r="F4" t="str" cm="1">
         <f t="array" ref="F4">IF($B4="TICKER", _xll.BDP($A4,F$1), _xll.BDP($A4&amp;" "&amp;$B4, F$1))</f>
-        <v>Corp</v>
+        <v>#N/A Requesting Data...</v>
       </c>
       <c r="G4" t="str" cm="1">
         <f t="array" ref="G4">IF($B4="TICKER", _xll.BDP($A4,G$1), _xll.BDP($A4&amp;" "&amp;$B4, G$1))</f>
-        <v>ACTV</v>
+        <v>#N/A Requesting Data...</v>
       </c>
       <c r="H4" t="str" cm="1">
-        <f t="array" ref="H4">IF($B4="TICKER", _xll.BDP($A4,H$1), _xll.BDP($A4&amp;" "&amp;$B4, H$1))</f>
-        <v>Y</v>
+        <f t="array" ref="H4">IF(C4="Equity", "N", IF($B4="TICKER", _xll.BDP($A4,H$1), _xll.BDP($A4&amp;" "&amp;$B4, H$1)))</f>
+        <v>#N/A Requesting Data...</v>
       </c>
     </row>
   </sheetData>
